--- a/algorithm_comparison.xlsx
+++ b/algorithm_comparison.xlsx
@@ -30,7 +30,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -76,12 +82,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -548,6 +557,237 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BFS</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-06 10:49:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>AI-BFS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Human-Player</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>AI-BFS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Human-Player</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>AI-BFS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Human-Player</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>560</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-06 19:54:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
